--- a/testy_logiki_gięcia2/2.test_wyciagania_odcinkow/wyniki_odcinki.xlsx
+++ b/testy_logiki_gięcia2/2.test_wyciagania_odcinkow/wyniki_odcinki.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K41"/>
+  <dimension ref="A1:L73"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,6 +489,11 @@
           <t>Długość łuku</t>
         </is>
       </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Skrajny</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -530,6 +535,9 @@
       <c r="K2" t="n">
         <v>200</v>
       </c>
+      <c r="L2" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -571,6 +579,9 @@
       <c r="K3" t="n">
         <v>55.18352200000001</v>
       </c>
+      <c r="L3" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -612,6 +623,9 @@
       <c r="K4" t="n">
         <v>200</v>
       </c>
+      <c r="L4" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -653,6 +667,9 @@
       <c r="K5" t="n">
         <v>55.18352200000001</v>
       </c>
+      <c r="L5" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -694,6 +711,9 @@
       <c r="K6" t="n">
         <v>200</v>
       </c>
+      <c r="L6" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -735,6 +755,9 @@
       <c r="K7" t="n">
         <v>4.816477999999989</v>
       </c>
+      <c r="L7" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -776,6 +799,9 @@
       <c r="K8" t="n">
         <v>200</v>
       </c>
+      <c r="L8" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -817,6 +843,9 @@
       <c r="K9" t="n">
         <v>4.816477999999989</v>
       </c>
+      <c r="L9" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -858,6 +887,9 @@
       <c r="K10" t="n">
         <v>200</v>
       </c>
+      <c r="L10" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -899,6 +931,9 @@
       <c r="K11" t="n">
         <v>25.183522</v>
       </c>
+      <c r="L11" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -940,6 +975,9 @@
       <c r="K12" t="n">
         <v>200</v>
       </c>
+      <c r="L12" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -981,6 +1019,9 @@
       <c r="K13" t="n">
         <v>25.183522</v>
       </c>
+      <c r="L13" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1022,6 +1063,9 @@
       <c r="K14" t="n">
         <v>200</v>
       </c>
+      <c r="L14" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1063,6 +1107,9 @@
       <c r="K15" t="n">
         <v>4.816478</v>
       </c>
+      <c r="L15" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1104,6 +1151,9 @@
       <c r="K16" t="n">
         <v>200</v>
       </c>
+      <c r="L16" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1145,6 +1195,9 @@
       <c r="K17" t="n">
         <v>4.816478</v>
       </c>
+      <c r="L17" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1186,6 +1239,9 @@
       <c r="K18" t="n">
         <v>5.994909</v>
       </c>
+      <c r="L18" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1227,6 +1283,9 @@
       <c r="K19" t="n">
         <v>5.994909</v>
       </c>
+      <c r="L19" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1268,6 +1327,9 @@
       <c r="K20" t="n">
         <v>5.994909</v>
       </c>
+      <c r="L20" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1309,6 +1371,9 @@
       <c r="K21" t="n">
         <v>5.994909</v>
       </c>
+      <c r="L21" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1350,6 +1415,9 @@
       <c r="K22" t="n">
         <v>200</v>
       </c>
+      <c r="L22" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1391,6 +1459,9 @@
       <c r="K23" t="n">
         <v>55.183522</v>
       </c>
+      <c r="L23" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1432,6 +1503,9 @@
       <c r="K24" t="n">
         <v>200</v>
       </c>
+      <c r="L24" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -1473,6 +1547,9 @@
       <c r="K25" t="n">
         <v>55.183522</v>
       </c>
+      <c r="L25" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1514,6 +1591,9 @@
       <c r="K26" t="n">
         <v>200</v>
       </c>
+      <c r="L26" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -1555,6 +1635,9 @@
       <c r="K27" t="n">
         <v>4.816477999999996</v>
       </c>
+      <c r="L27" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -1596,6 +1679,9 @@
       <c r="K28" t="n">
         <v>200</v>
       </c>
+      <c r="L28" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -1637,6 +1723,9 @@
       <c r="K29" t="n">
         <v>4.816477999999996</v>
       </c>
+      <c r="L29" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -1678,6 +1767,9 @@
       <c r="K30" t="n">
         <v>200</v>
       </c>
+      <c r="L30" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -1719,6 +1811,9 @@
       <c r="K31" t="n">
         <v>25.183522</v>
       </c>
+      <c r="L31" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -1760,6 +1855,9 @@
       <c r="K32" t="n">
         <v>200</v>
       </c>
+      <c r="L32" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -1801,6 +1899,9 @@
       <c r="K33" t="n">
         <v>25.183522</v>
       </c>
+      <c r="L33" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -1842,6 +1943,9 @@
       <c r="K34" t="n">
         <v>200</v>
       </c>
+      <c r="L34" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -1883,6 +1987,9 @@
       <c r="K35" t="n">
         <v>4.816478</v>
       </c>
+      <c r="L35" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -1924,6 +2031,9 @@
       <c r="K36" t="n">
         <v>200</v>
       </c>
+      <c r="L36" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -1965,6 +2075,9 @@
       <c r="K37" t="n">
         <v>4.816478</v>
       </c>
+      <c r="L37" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -2006,6 +2119,9 @@
       <c r="K38" t="n">
         <v>7.327111</v>
       </c>
+      <c r="L38" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -2047,6 +2163,9 @@
       <c r="K39" t="n">
         <v>7.327111</v>
       </c>
+      <c r="L39" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -2088,6 +2207,9 @@
       <c r="K40" t="n">
         <v>7.327111</v>
       </c>
+      <c r="L40" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -2128,6 +2250,1417 @@
       </c>
       <c r="K41" t="n">
         <v>7.327111</v>
+      </c>
+      <c r="L41" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>prd.70x60x20x2.dld</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>MainPlane</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>StaticComponentHull</t>
+        </is>
+      </c>
+      <c r="D42" t="n">
+        <v>1</v>
+      </c>
+      <c r="E42" t="n">
+        <v>0</v>
+      </c>
+      <c r="F42" t="n">
+        <v>138</v>
+      </c>
+      <c r="G42" t="n">
+        <v>200</v>
+      </c>
+      <c r="H42" t="n">
+        <v>138</v>
+      </c>
+      <c r="I42" t="b">
+        <v>0</v>
+      </c>
+      <c r="J42" t="n">
+        <v>200</v>
+      </c>
+      <c r="K42" t="n">
+        <v>200</v>
+      </c>
+      <c r="L42" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>prd.70x60x20x2.dld</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>MainPlane</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>StaticComponentHull</t>
+        </is>
+      </c>
+      <c r="D43" t="n">
+        <v>2</v>
+      </c>
+      <c r="E43" t="n">
+        <v>200</v>
+      </c>
+      <c r="F43" t="n">
+        <v>138</v>
+      </c>
+      <c r="G43" t="n">
+        <v>200</v>
+      </c>
+      <c r="H43" t="n">
+        <v>200</v>
+      </c>
+      <c r="I43" t="b">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>62</v>
+      </c>
+      <c r="K43" t="n">
+        <v>62</v>
+      </c>
+      <c r="L43" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>prd.70x60x20x2.dld</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>MainPlane</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>StaticComponentHull</t>
+        </is>
+      </c>
+      <c r="D44" t="n">
+        <v>3</v>
+      </c>
+      <c r="E44" t="n">
+        <v>200</v>
+      </c>
+      <c r="F44" t="n">
+        <v>200</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0</v>
+      </c>
+      <c r="H44" t="n">
+        <v>200</v>
+      </c>
+      <c r="I44" t="b">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>200</v>
+      </c>
+      <c r="K44" t="n">
+        <v>200</v>
+      </c>
+      <c r="L44" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>prd.70x60x20x2.dld</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>MainPlane</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>StaticComponentHull</t>
+        </is>
+      </c>
+      <c r="D45" t="n">
+        <v>4</v>
+      </c>
+      <c r="E45" t="n">
+        <v>0</v>
+      </c>
+      <c r="F45" t="n">
+        <v>200</v>
+      </c>
+      <c r="G45" t="n">
+        <v>0</v>
+      </c>
+      <c r="H45" t="n">
+        <v>138</v>
+      </c>
+      <c r="I45" t="b">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>62</v>
+      </c>
+      <c r="K45" t="n">
+        <v>62</v>
+      </c>
+      <c r="L45" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>prd.70x60x20x2.dld</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>DC00</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>ShorteningContour</t>
+        </is>
+      </c>
+      <c r="D46" t="n">
+        <v>1</v>
+      </c>
+      <c r="E46" t="n">
+        <v>200</v>
+      </c>
+      <c r="F46" t="n">
+        <v>138</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0</v>
+      </c>
+      <c r="H46" t="n">
+        <v>138</v>
+      </c>
+      <c r="I46" t="b">
+        <v>0</v>
+      </c>
+      <c r="J46" t="n">
+        <v>200</v>
+      </c>
+      <c r="K46" t="n">
+        <v>200</v>
+      </c>
+      <c r="L46" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>prd.70x60x20x2.dld</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>DC00</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>ShorteningContour</t>
+        </is>
+      </c>
+      <c r="D47" t="n">
+        <v>2</v>
+      </c>
+      <c r="E47" t="n">
+        <v>0</v>
+      </c>
+      <c r="F47" t="n">
+        <v>138</v>
+      </c>
+      <c r="G47" t="n">
+        <v>0</v>
+      </c>
+      <c r="H47" t="n">
+        <v>130</v>
+      </c>
+      <c r="I47" t="b">
+        <v>0</v>
+      </c>
+      <c r="J47" t="n">
+        <v>8</v>
+      </c>
+      <c r="K47" t="n">
+        <v>8</v>
+      </c>
+      <c r="L47" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>prd.70x60x20x2.dld</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>DC00</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>ShorteningContour</t>
+        </is>
+      </c>
+      <c r="D48" t="n">
+        <v>3</v>
+      </c>
+      <c r="E48" t="n">
+        <v>0</v>
+      </c>
+      <c r="F48" t="n">
+        <v>130</v>
+      </c>
+      <c r="G48" t="n">
+        <v>200</v>
+      </c>
+      <c r="H48" t="n">
+        <v>130</v>
+      </c>
+      <c r="I48" t="b">
+        <v>0</v>
+      </c>
+      <c r="J48" t="n">
+        <v>200</v>
+      </c>
+      <c r="K48" t="n">
+        <v>200</v>
+      </c>
+      <c r="L48" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>prd.70x60x20x2.dld</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>DC00</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>ShorteningContour</t>
+        </is>
+      </c>
+      <c r="D49" t="n">
+        <v>4</v>
+      </c>
+      <c r="E49" t="n">
+        <v>200</v>
+      </c>
+      <c r="F49" t="n">
+        <v>130</v>
+      </c>
+      <c r="G49" t="n">
+        <v>200</v>
+      </c>
+      <c r="H49" t="n">
+        <v>138</v>
+      </c>
+      <c r="I49" t="b">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>8</v>
+      </c>
+      <c r="K49" t="n">
+        <v>8</v>
+      </c>
+      <c r="L49" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>prd.70x60x20x2.dld</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>SC00</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>StaticComponentHull</t>
+        </is>
+      </c>
+      <c r="D50" t="n">
+        <v>1</v>
+      </c>
+      <c r="E50" t="n">
+        <v>8</v>
+      </c>
+      <c r="F50" t="n">
+        <v>200</v>
+      </c>
+      <c r="G50" t="n">
+        <v>8</v>
+      </c>
+      <c r="H50" t="n">
+        <v>0</v>
+      </c>
+      <c r="I50" t="b">
+        <v>0</v>
+      </c>
+      <c r="J50" t="n">
+        <v>200</v>
+      </c>
+      <c r="K50" t="n">
+        <v>200</v>
+      </c>
+      <c r="L50" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>prd.70x60x20x2.dld</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>SC00</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>StaticComponentHull</t>
+        </is>
+      </c>
+      <c r="D51" t="n">
+        <v>2</v>
+      </c>
+      <c r="E51" t="n">
+        <v>8</v>
+      </c>
+      <c r="F51" t="n">
+        <v>0</v>
+      </c>
+      <c r="G51" t="n">
+        <v>49.957274</v>
+      </c>
+      <c r="H51" t="n">
+        <v>0</v>
+      </c>
+      <c r="I51" t="b">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>41.957274</v>
+      </c>
+      <c r="K51" t="n">
+        <v>41.957274</v>
+      </c>
+      <c r="L51" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>prd.70x60x20x2.dld</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>SC00</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>StaticComponentHull</t>
+        </is>
+      </c>
+      <c r="D52" t="n">
+        <v>3</v>
+      </c>
+      <c r="E52" t="n">
+        <v>49.957274</v>
+      </c>
+      <c r="F52" t="n">
+        <v>0</v>
+      </c>
+      <c r="G52" t="n">
+        <v>49.957274</v>
+      </c>
+      <c r="H52" t="n">
+        <v>200</v>
+      </c>
+      <c r="I52" t="b">
+        <v>0</v>
+      </c>
+      <c r="J52" t="n">
+        <v>200</v>
+      </c>
+      <c r="K52" t="n">
+        <v>200</v>
+      </c>
+      <c r="L52" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>prd.70x60x20x2.dld</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>SC00</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>StaticComponentHull</t>
+        </is>
+      </c>
+      <c r="D53" t="n">
+        <v>4</v>
+      </c>
+      <c r="E53" t="n">
+        <v>49.957274</v>
+      </c>
+      <c r="F53" t="n">
+        <v>200</v>
+      </c>
+      <c r="G53" t="n">
+        <v>8</v>
+      </c>
+      <c r="H53" t="n">
+        <v>200</v>
+      </c>
+      <c r="I53" t="b">
+        <v>0</v>
+      </c>
+      <c r="J53" t="n">
+        <v>41.957274</v>
+      </c>
+      <c r="K53" t="n">
+        <v>41.957274</v>
+      </c>
+      <c r="L53" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>prd.70x60x20x2.dld</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>DC01</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>ShorteningContour</t>
+        </is>
+      </c>
+      <c r="D54" t="n">
+        <v>1</v>
+      </c>
+      <c r="E54" t="n">
+        <v>49.957274</v>
+      </c>
+      <c r="F54" t="n">
+        <v>200</v>
+      </c>
+      <c r="G54" t="n">
+        <v>49.957274</v>
+      </c>
+      <c r="H54" t="n">
+        <v>0</v>
+      </c>
+      <c r="I54" t="b">
+        <v>0</v>
+      </c>
+      <c r="J54" t="n">
+        <v>200</v>
+      </c>
+      <c r="K54" t="n">
+        <v>200</v>
+      </c>
+      <c r="L54" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>prd.70x60x20x2.dld</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>DC01</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>ShorteningContour</t>
+        </is>
+      </c>
+      <c r="D55" t="n">
+        <v>2</v>
+      </c>
+      <c r="E55" t="n">
+        <v>49.957274</v>
+      </c>
+      <c r="F55" t="n">
+        <v>0</v>
+      </c>
+      <c r="G55" t="n">
+        <v>60</v>
+      </c>
+      <c r="H55" t="n">
+        <v>0</v>
+      </c>
+      <c r="I55" t="b">
+        <v>0</v>
+      </c>
+      <c r="J55" t="n">
+        <v>10.042726</v>
+      </c>
+      <c r="K55" t="n">
+        <v>10.042726</v>
+      </c>
+      <c r="L55" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>prd.70x60x20x2.dld</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>DC01</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>ShorteningContour</t>
+        </is>
+      </c>
+      <c r="D56" t="n">
+        <v>3</v>
+      </c>
+      <c r="E56" t="n">
+        <v>60</v>
+      </c>
+      <c r="F56" t="n">
+        <v>0</v>
+      </c>
+      <c r="G56" t="n">
+        <v>60</v>
+      </c>
+      <c r="H56" t="n">
+        <v>200</v>
+      </c>
+      <c r="I56" t="b">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>200</v>
+      </c>
+      <c r="K56" t="n">
+        <v>200</v>
+      </c>
+      <c r="L56" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>prd.70x60x20x2.dld</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>DC01</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>ShorteningContour</t>
+        </is>
+      </c>
+      <c r="D57" t="n">
+        <v>4</v>
+      </c>
+      <c r="E57" t="n">
+        <v>60</v>
+      </c>
+      <c r="F57" t="n">
+        <v>200</v>
+      </c>
+      <c r="G57" t="n">
+        <v>49.957274</v>
+      </c>
+      <c r="H57" t="n">
+        <v>200</v>
+      </c>
+      <c r="I57" t="b">
+        <v>0</v>
+      </c>
+      <c r="J57" t="n">
+        <v>10.042726</v>
+      </c>
+      <c r="K57" t="n">
+        <v>10.042726</v>
+      </c>
+      <c r="L57" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>prd.70x60x20x2.dld</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>SC01</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>StaticComponentHull</t>
+        </is>
+      </c>
+      <c r="D58" t="n">
+        <v>1</v>
+      </c>
+      <c r="E58" t="n">
+        <v>10.042726</v>
+      </c>
+      <c r="F58" t="n">
+        <v>200</v>
+      </c>
+      <c r="G58" t="n">
+        <v>10.042726</v>
+      </c>
+      <c r="H58" t="n">
+        <v>0</v>
+      </c>
+      <c r="I58" t="b">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>200</v>
+      </c>
+      <c r="K58" t="n">
+        <v>200</v>
+      </c>
+      <c r="L58" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>prd.70x60x20x2.dld</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>SC01</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>StaticComponentHull</t>
+        </is>
+      </c>
+      <c r="D59" t="n">
+        <v>2</v>
+      </c>
+      <c r="E59" t="n">
+        <v>10.042726</v>
+      </c>
+      <c r="F59" t="n">
+        <v>0</v>
+      </c>
+      <c r="G59" t="n">
+        <v>20</v>
+      </c>
+      <c r="H59" t="n">
+        <v>0</v>
+      </c>
+      <c r="I59" t="b">
+        <v>0</v>
+      </c>
+      <c r="J59" t="n">
+        <v>9.957274</v>
+      </c>
+      <c r="K59" t="n">
+        <v>9.957274</v>
+      </c>
+      <c r="L59" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>prd.70x60x20x2.dld</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>SC01</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>StaticComponentHull</t>
+        </is>
+      </c>
+      <c r="D60" t="n">
+        <v>3</v>
+      </c>
+      <c r="E60" t="n">
+        <v>20</v>
+      </c>
+      <c r="F60" t="n">
+        <v>0</v>
+      </c>
+      <c r="G60" t="n">
+        <v>20</v>
+      </c>
+      <c r="H60" t="n">
+        <v>200</v>
+      </c>
+      <c r="I60" t="b">
+        <v>0</v>
+      </c>
+      <c r="J60" t="n">
+        <v>200</v>
+      </c>
+      <c r="K60" t="n">
+        <v>200</v>
+      </c>
+      <c r="L60" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>prd.70x60x20x2.dld</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>SC01</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>StaticComponentHull</t>
+        </is>
+      </c>
+      <c r="D61" t="n">
+        <v>4</v>
+      </c>
+      <c r="E61" t="n">
+        <v>20</v>
+      </c>
+      <c r="F61" t="n">
+        <v>200</v>
+      </c>
+      <c r="G61" t="n">
+        <v>10.042726</v>
+      </c>
+      <c r="H61" t="n">
+        <v>200</v>
+      </c>
+      <c r="I61" t="b">
+        <v>0</v>
+      </c>
+      <c r="J61" t="n">
+        <v>9.957274</v>
+      </c>
+      <c r="K61" t="n">
+        <v>9.957274</v>
+      </c>
+      <c r="L61" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>prd.70x60x20x2.dld</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>DC01</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>ShorteningContour</t>
+        </is>
+      </c>
+      <c r="D62" t="n">
+        <v>1</v>
+      </c>
+      <c r="E62" t="n">
+        <v>10.042726</v>
+      </c>
+      <c r="F62" t="n">
+        <v>0</v>
+      </c>
+      <c r="G62" t="n">
+        <v>10.042726</v>
+      </c>
+      <c r="H62" t="n">
+        <v>200</v>
+      </c>
+      <c r="I62" t="b">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>200</v>
+      </c>
+      <c r="K62" t="n">
+        <v>200</v>
+      </c>
+      <c r="L62" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>prd.70x60x20x2.dld</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>DC01</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>ShorteningContour</t>
+        </is>
+      </c>
+      <c r="D63" t="n">
+        <v>2</v>
+      </c>
+      <c r="E63" t="n">
+        <v>10.042726</v>
+      </c>
+      <c r="F63" t="n">
+        <v>200</v>
+      </c>
+      <c r="G63" t="n">
+        <v>0</v>
+      </c>
+      <c r="H63" t="n">
+        <v>200</v>
+      </c>
+      <c r="I63" t="b">
+        <v>0</v>
+      </c>
+      <c r="J63" t="n">
+        <v>10.042726</v>
+      </c>
+      <c r="K63" t="n">
+        <v>10.042726</v>
+      </c>
+      <c r="L63" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>prd.70x60x20x2.dld</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>DC01</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>ShorteningContour</t>
+        </is>
+      </c>
+      <c r="D64" t="n">
+        <v>3</v>
+      </c>
+      <c r="E64" t="n">
+        <v>0</v>
+      </c>
+      <c r="F64" t="n">
+        <v>200</v>
+      </c>
+      <c r="G64" t="n">
+        <v>0</v>
+      </c>
+      <c r="H64" t="n">
+        <v>0</v>
+      </c>
+      <c r="I64" t="b">
+        <v>0</v>
+      </c>
+      <c r="J64" t="n">
+        <v>200</v>
+      </c>
+      <c r="K64" t="n">
+        <v>200</v>
+      </c>
+      <c r="L64" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>prd.70x60x20x2.dld</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>DC01</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>ShorteningContour</t>
+        </is>
+      </c>
+      <c r="D65" t="n">
+        <v>4</v>
+      </c>
+      <c r="E65" t="n">
+        <v>0</v>
+      </c>
+      <c r="F65" t="n">
+        <v>0</v>
+      </c>
+      <c r="G65" t="n">
+        <v>10.042726</v>
+      </c>
+      <c r="H65" t="n">
+        <v>0</v>
+      </c>
+      <c r="I65" t="b">
+        <v>0</v>
+      </c>
+      <c r="J65" t="n">
+        <v>10.042726</v>
+      </c>
+      <c r="K65" t="n">
+        <v>10.042726</v>
+      </c>
+      <c r="L65" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>prd.70x60x20x2.dld</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>DC01</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>VDeformableComponentHulls</t>
+        </is>
+      </c>
+      <c r="D66" t="n">
+        <v>1</v>
+      </c>
+      <c r="E66" t="n">
+        <v>0</v>
+      </c>
+      <c r="F66" t="n">
+        <v>0</v>
+      </c>
+      <c r="G66" t="n">
+        <v>14.20428</v>
+      </c>
+      <c r="H66" t="n">
+        <v>0</v>
+      </c>
+      <c r="I66" t="b">
+        <v>0</v>
+      </c>
+      <c r="J66" t="n">
+        <v>14.20428</v>
+      </c>
+      <c r="K66" t="n">
+        <v>14.20428</v>
+      </c>
+      <c r="L66" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>prd.70x60x20x2.dld</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>DC01</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>VDeformableComponentHulls</t>
+        </is>
+      </c>
+      <c r="D67" t="n">
+        <v>2</v>
+      </c>
+      <c r="E67" t="n">
+        <v>14.20428</v>
+      </c>
+      <c r="F67" t="n">
+        <v>0</v>
+      </c>
+      <c r="G67" t="n">
+        <v>14.20428</v>
+      </c>
+      <c r="H67" t="n">
+        <v>200</v>
+      </c>
+      <c r="I67" t="b">
+        <v>0</v>
+      </c>
+      <c r="J67" t="n">
+        <v>200</v>
+      </c>
+      <c r="K67" t="n">
+        <v>14.20428</v>
+      </c>
+      <c r="L67" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>prd.70x60x20x2.dld</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>DC01</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>VDeformableComponentHulls</t>
+        </is>
+      </c>
+      <c r="D68" t="n">
+        <v>3</v>
+      </c>
+      <c r="E68" t="n">
+        <v>14.20428</v>
+      </c>
+      <c r="F68" t="n">
+        <v>200</v>
+      </c>
+      <c r="G68" t="n">
+        <v>0</v>
+      </c>
+      <c r="H68" t="n">
+        <v>200</v>
+      </c>
+      <c r="I68" t="b">
+        <v>0</v>
+      </c>
+      <c r="J68" t="n">
+        <v>14.20428</v>
+      </c>
+      <c r="K68" t="n">
+        <v>14.20428</v>
+      </c>
+      <c r="L68" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>prd.70x60x20x2.dld</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>DC01</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>VDeformableComponentHulls</t>
+        </is>
+      </c>
+      <c r="D69" t="n">
+        <v>4</v>
+      </c>
+      <c r="E69" t="n">
+        <v>0</v>
+      </c>
+      <c r="F69" t="n">
+        <v>200</v>
+      </c>
+      <c r="G69" t="n">
+        <v>0</v>
+      </c>
+      <c r="H69" t="n">
+        <v>0</v>
+      </c>
+      <c r="I69" t="b">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>200</v>
+      </c>
+      <c r="K69" t="n">
+        <v>14.20428</v>
+      </c>
+      <c r="L69" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>prd.70x60x20x2.dld</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>DC00</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>VDeformableComponentHulls</t>
+        </is>
+      </c>
+      <c r="D70" t="n">
+        <v>1</v>
+      </c>
+      <c r="E70" t="n">
+        <v>0</v>
+      </c>
+      <c r="F70" t="n">
+        <v>0</v>
+      </c>
+      <c r="G70" t="n">
+        <v>13.439035</v>
+      </c>
+      <c r="H70" t="n">
+        <v>0</v>
+      </c>
+      <c r="I70" t="b">
+        <v>0</v>
+      </c>
+      <c r="J70" t="n">
+        <v>13.439035</v>
+      </c>
+      <c r="K70" t="n">
+        <v>13.439035</v>
+      </c>
+      <c r="L70" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>prd.70x60x20x2.dld</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>DC00</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>VDeformableComponentHulls</t>
+        </is>
+      </c>
+      <c r="D71" t="n">
+        <v>2</v>
+      </c>
+      <c r="E71" t="n">
+        <v>13.439035</v>
+      </c>
+      <c r="F71" t="n">
+        <v>0</v>
+      </c>
+      <c r="G71" t="n">
+        <v>13.439035</v>
+      </c>
+      <c r="H71" t="n">
+        <v>200</v>
+      </c>
+      <c r="I71" t="b">
+        <v>0</v>
+      </c>
+      <c r="J71" t="n">
+        <v>200</v>
+      </c>
+      <c r="K71" t="n">
+        <v>13.439035</v>
+      </c>
+      <c r="L71" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>prd.70x60x20x2.dld</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>DC00</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>VDeformableComponentHulls</t>
+        </is>
+      </c>
+      <c r="D72" t="n">
+        <v>3</v>
+      </c>
+      <c r="E72" t="n">
+        <v>13.439035</v>
+      </c>
+      <c r="F72" t="n">
+        <v>200</v>
+      </c>
+      <c r="G72" t="n">
+        <v>0</v>
+      </c>
+      <c r="H72" t="n">
+        <v>200</v>
+      </c>
+      <c r="I72" t="b">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>13.439035</v>
+      </c>
+      <c r="K72" t="n">
+        <v>13.439035</v>
+      </c>
+      <c r="L72" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>prd.70x60x20x2.dld</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>DC00</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>VDeformableComponentHulls</t>
+        </is>
+      </c>
+      <c r="D73" t="n">
+        <v>4</v>
+      </c>
+      <c r="E73" t="n">
+        <v>0</v>
+      </c>
+      <c r="F73" t="n">
+        <v>200</v>
+      </c>
+      <c r="G73" t="n">
+        <v>0</v>
+      </c>
+      <c r="H73" t="n">
+        <v>0</v>
+      </c>
+      <c r="I73" t="b">
+        <v>0</v>
+      </c>
+      <c r="J73" t="n">
+        <v>200</v>
+      </c>
+      <c r="K73" t="n">
+        <v>13.439035</v>
+      </c>
+      <c r="L73" t="b">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
